--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,16 +438,98 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>program_name</t>
+          <t>REPROG_ID_PRE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_TITLE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CED_ID_PRE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CED_NAME_PRE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_ACTIVE_IND</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_COMMENT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_CD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_NAME</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_LOB_CD</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_LOB_NAME</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>BUSPAR_CED_REG_CLASS_CD</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>BUSPAR_CED_REG_CLASS_NAME</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_MAIN_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_MANAGEMENT_REPORTING_LOB_CD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>SINGLE_QUOTA_SHARE_2024</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -476,12 +558,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>contract_order</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>product_type</t>
+          <t>type_of_participation</t>
         </is>
       </c>
     </row>
@@ -496,7 +578,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quote_share</t>
+          <t>quota_share</t>
         </is>
       </c>
     </row>
@@ -527,17 +609,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>session_rate</t>
+          <t>cession_PCT</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>priority</t>
+          <t>attachment_point_100</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>limit</t>
+          <t>limit_occurrence_100</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,34 +553,142 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>structure_name</t>
+          <t>INSPER_ID_PRE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>contract_order</t>
+          <t>BUSINESS_ID_PRE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>type_of_participation</t>
+          <t>TYPE_OF_PARTICIPATION_CD</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TYPE_OF_INSURED_PERIOD_CD</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ACTIVE_FLAG_CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_EFFECTIVE_DATE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_EXPIRY_DATE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_ID_PRE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>BUSINESS_TITLE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_LAYER_NO</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_MAIN_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_UW_YEAR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_ORDER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_FORM_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_LODRA_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_COVERAGE_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CLAIM_BASIS_CD</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_LODRA_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_LOD_TO_RA_DATE_SLAV</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_COMMENT</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>quota_share</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>QS_30</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>quota_share</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -604,7 +712,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>structure_name</t>
+          <t>BUSINESS_TITLE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -701,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,87 +712,207 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>BUSINESS_TITLE</t>
+          <t>BUSCL_ID_PRE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>cession_PCT</t>
+          <t>REPROG_ID_PRE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>attachment_point_100</t>
+          <t>CED_ID_PRE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>limit_occurrence_100</t>
+          <t>BUSINESS_ID_PRE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>INSPER_ID_PRE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>BUSCL_EXCLUDE_CD</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>product_type_1</t>
+          <t>BUSCL_ENTITY_NAME_CED</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>product_type_2</t>
+          <t>POL_RISK_NAME_CED</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>product_type_3</t>
+          <t>BUSCL_COUNTRY_CD</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>currency</t>
+          <t>BUSCL_COUNTRY</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>line_of_business</t>
+          <t>BUSCL_REGION</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>BUSCL_CLASS_OF_BUSINESS_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>sic_code</t>
+          <t>BUSCL_CLASS_OF_BUSINESS_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>BUSCL_CLASS_OF_BUSINESS_3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>BUSCL_LIMIT_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>AAD_100</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_100</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_FLOATER_100</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ATTACHMENT_POINT_100</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>OLW_100</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_OCCURRENCE_100</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_AGG_100</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>CESSION_PCT</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>RETENTION_PCT</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>SUPI_100</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>PREMIUM_RATE_PCT</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>PREMIUM_DEPOSIT_100</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>PREMIUM_MIN_100</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>BUSCL_LIABILITY_1_LINE_100</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>MAX_COVER_PCT</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_EXCESS_PCT</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>SIGNED_SHARE_PCT</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_LINE_SLAV_CED</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>PML_DEFAULT_PCT</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_EVENT</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>QS_30</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -802,6 +922,32 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -434,6 +434,22 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
+    <col width="29" customWidth="1" min="9" max="9"/>
+    <col width="31" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="36" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -516,20 +532,9 @@
           <t>SINGLE_QUOTA_SHARE_2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -549,6 +554,28 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+    <col width="31" customWidth="1" min="15" max="15"/>
+    <col width="34" customWidth="1" min="16" max="16"/>
+    <col width="23" customWidth="1" min="17" max="17"/>
+    <col width="22" customWidth="1" min="18" max="18"/>
+    <col width="28" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -656,18 +683,14 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>quota_share</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>1</v>
       </c>
@@ -676,19 +699,9 @@
           <t>QS_30</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -708,6 +721,46 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="22" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="13" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="10" customWidth="1" min="25" max="25"/>
+    <col width="27" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="21" customWidth="1" min="29" max="29"/>
+    <col width="17" customWidth="1" min="30" max="30"/>
+    <col width="28" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="16" customWidth="1" min="33" max="33"/>
+    <col width="18" customWidth="1" min="34" max="34"/>
+    <col width="23" customWidth="1" min="35" max="35"/>
+    <col width="17" customWidth="1" min="36" max="36"/>
+    <col width="13" customWidth="1" min="37" max="37"/>
+    <col width="22" customWidth="1" min="38" max="38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -908,46 +961,12 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
         <v>0.3</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -547,7 +547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,13 +568,14 @@
     <col width="25" customWidth="1" min="11" max="11"/>
     <col width="16" customWidth="1" min="12" max="12"/>
     <col width="23" customWidth="1" min="13" max="13"/>
-    <col width="30" customWidth="1" min="14" max="14"/>
-    <col width="31" customWidth="1" min="15" max="15"/>
-    <col width="34" customWidth="1" min="16" max="16"/>
-    <col width="23" customWidth="1" min="17" max="17"/>
-    <col width="22" customWidth="1" min="18" max="18"/>
-    <col width="28" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="30" customWidth="1" min="15" max="15"/>
+    <col width="31" customWidth="1" min="16" max="16"/>
+    <col width="34" customWidth="1" min="17" max="17"/>
+    <col width="23" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="19" max="19"/>
+    <col width="28" customWidth="1" min="20" max="20"/>
+    <col width="16" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -645,35 +646,40 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>INSPER_PREDECESSOR_TITLE</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>INSPER_CONTRACT_FORM_CD_SLAV</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CONTRACT_LODRA_CD_SLAV</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CONTRACT_COVERAGE_CD_SLAV</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CLAIM_BASIS_CD</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>INSPER_LODRA_CD_SLAV</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>INSPER_LOD_TO_RA_DATE_SLAV</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>INSPER_COMMENT</t>
         </is>

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -705,9 +705,6 @@
           <t>QS_30</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -434,22 +434,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="27" customWidth="1" min="8" max="8"/>
-    <col width="29" customWidth="1" min="9" max="9"/>
-    <col width="31" customWidth="1" min="10" max="10"/>
-    <col width="25" customWidth="1" min="11" max="11"/>
-    <col width="27" customWidth="1" min="12" max="12"/>
-    <col width="25" customWidth="1" min="13" max="13"/>
-    <col width="36" customWidth="1" min="14" max="14"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -532,9 +516,20 @@
           <t>SINGLE_QUOTA_SHARE_2024</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -554,29 +549,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="27" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="25" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
-    <col width="23" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
-    <col width="30" customWidth="1" min="15" max="15"/>
-    <col width="31" customWidth="1" min="16" max="16"/>
-    <col width="34" customWidth="1" min="17" max="17"/>
-    <col width="23" customWidth="1" min="18" max="18"/>
-    <col width="22" customWidth="1" min="19" max="19"/>
-    <col width="28" customWidth="1" min="20" max="20"/>
-    <col width="16" customWidth="1" min="21" max="21"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -689,14 +661,18 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>quota_share</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>1</v>
       </c>
@@ -705,6 +681,18 @@
           <t>QS_30</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -724,46 +712,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="23" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="27" customWidth="1" min="12" max="12"/>
-    <col width="27" customWidth="1" min="13" max="13"/>
-    <col width="27" customWidth="1" min="14" max="14"/>
-    <col width="25" customWidth="1" min="15" max="15"/>
-    <col width="10" customWidth="1" min="16" max="16"/>
-    <col width="11" customWidth="1" min="17" max="17"/>
-    <col width="19" customWidth="1" min="18" max="18"/>
-    <col width="22" customWidth="1" min="19" max="19"/>
-    <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="22" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="13" customWidth="1" min="23" max="23"/>
-    <col width="15" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
-    <col width="27" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
-    <col width="21" customWidth="1" min="29" max="29"/>
-    <col width="17" customWidth="1" min="30" max="30"/>
-    <col width="28" customWidth="1" min="31" max="31"/>
-    <col width="15" customWidth="1" min="32" max="32"/>
-    <col width="16" customWidth="1" min="33" max="33"/>
-    <col width="18" customWidth="1" min="34" max="34"/>
-    <col width="23" customWidth="1" min="35" max="35"/>
-    <col width="17" customWidth="1" min="36" max="36"/>
-    <col width="13" customWidth="1" min="37" max="37"/>
-    <col width="22" customWidth="1" min="38" max="38"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -964,12 +912,48 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>1</v>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
         <v>0.3</v>
       </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -980,6 +980,9 @@
       <c r="W2" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -727,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +773,8 @@
     <col width="17" customWidth="1" min="36" max="36"/>
     <col width="13" customWidth="1" min="37" max="37"/>
     <col width="22" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
+    <col width="20" customWidth="1" min="40" max="40"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -966,6 +968,16 @@
           <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>INCLUDES_HULL</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>INCLUDES_LIABILITY</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -981,6 +993,12 @@
         <v>0.3</v>
       </c>
       <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -995,12 +995,6 @@
       <c r="AH2" t="n">
         <v>1</v>
       </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="b">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="program" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="structures" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sections" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="conditions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/examples/programs/single_quota_share.xlsx
+++ b/examples/programs/single_quota_share.xlsx
@@ -727,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,26 +755,25 @@
     <col width="19" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="22" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="13" customWidth="1" min="23" max="23"/>
-    <col width="15" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
-    <col width="27" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
-    <col width="21" customWidth="1" min="29" max="29"/>
-    <col width="17" customWidth="1" min="30" max="30"/>
-    <col width="28" customWidth="1" min="31" max="31"/>
-    <col width="15" customWidth="1" min="32" max="32"/>
-    <col width="16" customWidth="1" min="33" max="33"/>
-    <col width="18" customWidth="1" min="34" max="34"/>
-    <col width="23" customWidth="1" min="35" max="35"/>
-    <col width="17" customWidth="1" min="36" max="36"/>
-    <col width="13" customWidth="1" min="37" max="37"/>
-    <col width="22" customWidth="1" min="38" max="38"/>
-    <col width="15" customWidth="1" min="39" max="39"/>
-    <col width="20" customWidth="1" min="40" max="40"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="24" max="24"/>
+    <col width="27" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="18" customWidth="1" min="27" max="27"/>
+    <col width="21" customWidth="1" min="28" max="28"/>
+    <col width="17" customWidth="1" min="29" max="29"/>
+    <col width="28" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="16" customWidth="1" min="32" max="32"/>
+    <col width="18" customWidth="1" min="33" max="33"/>
+    <col width="23" customWidth="1" min="34" max="34"/>
+    <col width="17" customWidth="1" min="35" max="35"/>
+    <col width="13" customWidth="1" min="36" max="36"/>
+    <col width="22" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="39" max="39"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -880,100 +879,95 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_OCCURRENCE_100</t>
+          <t>LIMIT_AGG_100</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_AGG_100</t>
+          <t>CESSION_PCT</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>CESSION_PCT</t>
+          <t>RETENTION_PCT</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>RETENTION_PCT</t>
+          <t>SUPI_100</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>SUPI_100</t>
+          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
+          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
+          <t>PREMIUM_RATE_PCT</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_RATE_PCT</t>
+          <t>PREMIUM_DEPOSIT_100</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_DEPOSIT_100</t>
+          <t>PREMIUM_MIN_100</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_MIN_100</t>
+          <t>BUSCL_LIABILITY_1_LINE_100</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_LIABILITY_1_LINE_100</t>
+          <t>MAX_COVER_PCT</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>MAX_COVER_PCT</t>
+          <t>MIN_EXCESS_PCT</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>MIN_EXCESS_PCT</t>
+          <t>SIGNED_SHARE_PCT</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>SIGNED_SHARE_PCT</t>
+          <t>AVERAGE_LINE_SLAV_CED</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>AVERAGE_LINE_SLAV_CED</t>
+          <t>PML_DEFAULT_PCT</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>PML_DEFAULT_PCT</t>
+          <t>LIMIT_EVENT</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_EVENT</t>
+          <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>NO_OF_REINSTATEMENTS</t>
+          <t>INCLUDES_HULL</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>INCLUDES_HULL</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>INCLUDES_LIABILITY</t>
         </is>
@@ -989,10 +983,10 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="W2" t="n">
+      <c r="V2" t="n">
         <v>0.3</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AG2" t="n">
         <v>1</v>
       </c>
     </row>
